--- a/Software_Packages/Package_PerformanceVisual/Robustness to noisy videos.xlsx
+++ b/Software_Packages/Package_PerformanceVisual/Robustness to noisy videos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fffei\Dropbox\dropbox2016-2024\Paper\Automatic frequency measurement\worm analysis\Data\Videos_consol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongfeiji/Library/CloudStorage/Dropbox/dropbox2016-2024/Paper/Automatic frequency measurement/worm analysis/Data/Videos_consol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AA242E-2FB3-438F-B19B-DB4A1FEBCE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9650F9-3926-E64A-9EBF-54DA23920B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="1230" windowWidth="16545" windowHeight="14415" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1840" windowWidth="23060" windowHeight="14420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Response to noisy videos" sheetId="1" r:id="rId1"/>
@@ -395,13 +395,13 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -412,7 +412,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -441,7 +441,7 @@
         <v>7.2900000000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>0.35659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -499,7 +499,7 @@
         <v>-1.169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -528,7 +528,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -539,7 +539,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -568,7 +568,7 @@
         <v>7.2900000000000006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -695,7 +695,7 @@
         <v>7.2900000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0.3715</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
         <v>8.7800000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -800,15 +800,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -846,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.9</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.9</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8.8000000000000007</v>
       </c>
@@ -915,7 +915,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>17.7</v>
       </c>
@@ -951,23 +951,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4337F37C-864E-4214-8AC2-9C21D7497090}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="M18:N18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -975,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>32</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0.88249999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>16</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0.87429999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -999,36 +999,36 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.90229999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.83230000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.87890000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.67889999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.53369999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.23369999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.5</v>
       </c>
       <c r="B9">
-        <v>0.41060000000000002</v>
+        <v>0.1106</v>
       </c>
     </row>
   </sheetData>
